--- a/Statistic/Statistic.xlsx
+++ b/Statistic/Statistic.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="LASVEGAS" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="185">
   <si>
     <t>Name</t>
   </si>
@@ -493,9 +493,6 @@
     <t>demonstrating that CD is more frequence than CE</t>
   </si>
   <si>
-    <t>Mean distance</t>
-  </si>
-  <si>
     <t>log scale</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>number of pattern</t>
   </si>
   <si>
-    <t>memory usage(total)</t>
-  </si>
-  <si>
     <t>standard deviation</t>
   </si>
   <si>
@@ -536,6 +530,63 @@
   </si>
   <si>
     <t>area</t>
+  </si>
+  <si>
+    <t>peak memory usage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đầu tiền rank - bảng này </t>
+  </si>
+  <si>
+    <t>rank tang thi se tien gan den minh hon</t>
+  </si>
+  <si>
+    <t>thuws hai: thauatj toán của mình phân biệt các colocation rõ hơn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thuứ ba: parameter resillient </t>
+  </si>
+  <si>
+    <t>lay vi du la thoi gian chay cua 2 tap dataset dua tren viec lua chon distance threshold</t>
+  </si>
+  <si>
+    <t>experiment 1</t>
+  </si>
+  <si>
+    <t>joinless phai lua chon distance thi moi ra duoc PI phu hop, trong khi thuat toan cua minh ko can chon distance cung dat duoc PI hop ly</t>
+  </si>
+  <si>
+    <t>Standard deviation of distance</t>
+  </si>
+  <si>
+    <t>NC-j</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>#pattern</t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>joinless</t>
+  </si>
+  <si>
+    <t>algo</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>#paterrn</t>
+  </si>
+  <si>
+    <t>peakmemory</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1229,9 +1280,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1277,7 +1325,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1295,9 +1342,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1309,10 +1354,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,6 +1463,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1445,6 +1529,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1467,15 +1557,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>259092</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>22869</xdr:rowOff>
+      <xdr:colOff>228612</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38109</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1498,7 +1588,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2019300" y="2979420"/>
+          <a:off x="1988820" y="2811780"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1516,7 +1606,7 @@
       <xdr:rowOff>165240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>241452</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>165249</xdr:rowOff>
@@ -1559,22 +1649,22 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>74442</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>460962</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>164124</xdr:rowOff>
+      <xdr:rowOff>150519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>598814</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>70780</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>103481</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109534</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="C:\Users\dumbw\AppData\Local\Packages\Microsoft.Windows.Photos_8wekyb3d8bbwe\TempState\ShareServiceTempFolder\time_taken_by_two_algos.jpeg"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1585,49 +1675,38 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1903242" y="164124"/>
-          <a:ext cx="6010772" cy="3359102"/>
+          <a:off x="6575777" y="150519"/>
+          <a:ext cx="5757334" cy="3176348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>87337</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>135402</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>244593</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>378590</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>93491</xdr:rowOff>
+      <xdr:colOff>47038</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160136</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1646,8 +1725,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7402537" y="135402"/>
-          <a:ext cx="5777653" cy="3228827"/>
+          <a:off x="6970889" y="3508963"/>
+          <a:ext cx="5917260" cy="3264580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>103023</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122296</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>162927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2548949" y="216997"/>
+          <a:ext cx="4299643" cy="3163263"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1979,52 +2102,52 @@
   <sheetData>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="123" t="s">
+      <c r="D10" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="124"/>
-      <c r="F10" s="137" t="s">
+      <c r="E10" s="131"/>
+      <c r="F10" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="139" t="s">
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="131"/>
+      <c r="Q10" s="138"/>
     </row>
     <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="125"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="142" t="s">
+      <c r="D11" s="132"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142" t="s">
+      <c r="G11" s="149"/>
+      <c r="H11" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142" t="s">
+      <c r="I11" s="149"/>
+      <c r="J11" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142" t="s">
+      <c r="K11" s="149"/>
+      <c r="L11" s="149" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142" t="s">
+      <c r="M11" s="149"/>
+      <c r="N11" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="O11" s="142"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="141"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="148"/>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="20" t="s">
@@ -2915,52 +3038,52 @@
     </row>
     <row r="34" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="4:17" x14ac:dyDescent="0.3">
-      <c r="D35" s="123" t="s">
+      <c r="D35" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="E35" s="124"/>
-      <c r="F35" s="127" t="s">
+      <c r="E35" s="131"/>
+      <c r="F35" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="130" t="s">
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="136"/>
+      <c r="P35" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="Q35" s="131"/>
+      <c r="Q35" s="138"/>
     </row>
     <row r="36" spans="4:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D36" s="125"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="134" t="s">
+      <c r="D36" s="132"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135" t="s">
+      <c r="G36" s="142"/>
+      <c r="H36" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135" t="s">
+      <c r="I36" s="142"/>
+      <c r="J36" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="K36" s="135"/>
-      <c r="L36" s="135" t="s">
+      <c r="K36" s="142"/>
+      <c r="L36" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="M36" s="135"/>
-      <c r="N36" s="135" t="s">
+      <c r="M36" s="142"/>
+      <c r="N36" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="O36" s="136"/>
-      <c r="P36" s="132"/>
-      <c r="Q36" s="133"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="139"/>
+      <c r="Q36" s="140"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D37" s="3" t="s">
@@ -3872,10 +3995,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:X53"/>
+  <dimension ref="D3:X59"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3889,10 +4012,10 @@
   <sheetData>
     <row r="3" spans="4:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="131"/>
       <c r="F4" s="34" t="s">
         <v>9</v>
       </c>
@@ -3911,48 +4034,48 @@
       <c r="S4" s="36"/>
       <c r="T4" s="36"/>
       <c r="U4" s="37"/>
-      <c r="V4" s="130" t="s">
+      <c r="V4" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="W4" s="131"/>
+      <c r="W4" s="138"/>
     </row>
     <row r="5" spans="4:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="134" t="s">
+      <c r="D5" s="132"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135" t="s">
+      <c r="G5" s="142"/>
+      <c r="H5" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135" t="s">
+      <c r="I5" s="142"/>
+      <c r="J5" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="135"/>
-      <c r="L5" s="143" t="s">
+      <c r="K5" s="142"/>
+      <c r="L5" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143" t="s">
+      <c r="M5" s="150"/>
+      <c r="N5" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="O5" s="144"/>
-      <c r="P5" s="143" t="s">
+      <c r="O5" s="151"/>
+      <c r="P5" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="143" t="s">
+      <c r="Q5" s="151"/>
+      <c r="R5" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="144"/>
-      <c r="T5" s="134" t="s">
+      <c r="S5" s="151"/>
+      <c r="T5" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="U5" s="136"/>
-      <c r="V5" s="132"/>
-      <c r="W5" s="133"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="139"/>
+      <c r="W5" s="140"/>
     </row>
     <row r="6" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
@@ -5221,568 +5344,246 @@
       <c r="I27" s="33"/>
       <c r="K27" s="58"/>
     </row>
-    <row r="30" spans="4:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D28" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D29" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D30" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="118" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
     <row r="31" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D31" s="123" t="s">
+      <c r="E31" s="118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="4:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D37" s="130" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="124"/>
-      <c r="F31" s="34" t="s">
+      <c r="E37" s="131"/>
+      <c r="F37" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="36"/>
-      <c r="R31" s="36"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="130" t="s">
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="W31" s="131"/>
-    </row>
-    <row r="32" spans="4:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="134" t="s">
+      <c r="W37" s="138"/>
+      <c r="X37"/>
+    </row>
+    <row r="38" spans="4:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D38" s="132"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="135"/>
-      <c r="H32" s="135" t="s">
+      <c r="G38" s="142"/>
+      <c r="H38" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="135"/>
-      <c r="J32" s="135" t="s">
+      <c r="I38" s="142"/>
+      <c r="J38" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="K32" s="135"/>
-      <c r="L32" s="143" t="s">
+      <c r="K38" s="142"/>
+      <c r="L38" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143" t="s">
+      <c r="M38" s="150"/>
+      <c r="N38" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="O32" s="144"/>
-      <c r="P32" s="143" t="s">
+      <c r="O38" s="151"/>
+      <c r="P38" s="150" t="s">
         <v>83</v>
       </c>
-      <c r="Q32" s="144"/>
-      <c r="R32" s="143" t="s">
+      <c r="Q38" s="151"/>
+      <c r="R38" s="150" t="s">
         <v>84</v>
       </c>
-      <c r="S32" s="144"/>
-      <c r="T32" s="143" t="s">
+      <c r="S38" s="151"/>
+      <c r="T38" s="150" t="s">
         <v>85</v>
       </c>
-      <c r="U32" s="144"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="133"/>
-      <c r="X32"/>
-    </row>
-    <row r="33" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D33" s="3" t="s">
+      <c r="U38" s="151"/>
+      <c r="V38" s="139"/>
+      <c r="W38" s="140"/>
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E39" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="W33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="X33"/>
-    </row>
-    <row r="34" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D34" s="10"/>
-      <c r="E34" s="8" t="s">
+      <c r="F39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U39" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="W39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="11">
+      <c r="F40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L40" s="11">
         <v>1</v>
       </c>
-      <c r="M34" s="52">
+      <c r="M40" s="52">
         <v>0.248889</v>
       </c>
-      <c r="N34" s="11">
+      <c r="N40" s="11">
         <v>1</v>
       </c>
-      <c r="O34" s="52">
+      <c r="O40" s="52">
         <v>0.34574100000000002</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P40" s="11">
         <v>1</v>
       </c>
-      <c r="Q34" s="52">
+      <c r="Q40" s="52">
         <v>0.42351899999999998</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R40" s="11">
         <v>1</v>
       </c>
-      <c r="S34" s="52">
+      <c r="S40" s="52">
         <v>0.49351899999999999</v>
       </c>
-      <c r="T34" s="11">
+      <c r="T40" s="11">
         <v>1</v>
       </c>
-      <c r="U34" s="52">
+      <c r="U40" s="52">
         <v>0.75981500000000002</v>
       </c>
-      <c r="V34" s="11">
+      <c r="V40" s="11">
         <v>1</v>
       </c>
-      <c r="W34" s="53">
+      <c r="W40" s="53">
         <v>0.12851899999999999</v>
-      </c>
-      <c r="X34"/>
-    </row>
-    <row r="35" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D35" s="6"/>
-      <c r="E35" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="7">
-        <v>2</v>
-      </c>
-      <c r="M35" s="54">
-        <v>0.22370399999999999</v>
-      </c>
-      <c r="N35" s="7">
-        <v>2</v>
-      </c>
-      <c r="O35" s="54">
-        <v>0.31907400000000002</v>
-      </c>
-      <c r="P35" s="7">
-        <v>2</v>
-      </c>
-      <c r="Q35" s="54">
-        <v>0.401111</v>
-      </c>
-      <c r="R35" s="7">
-        <v>2</v>
-      </c>
-      <c r="S35" s="54">
-        <v>0.48463000000000001</v>
-      </c>
-      <c r="T35" s="7">
-        <v>2</v>
-      </c>
-      <c r="U35" s="54">
-        <v>0.73004000000000002</v>
-      </c>
-      <c r="V35" s="7">
-        <v>2</v>
-      </c>
-      <c r="W35" s="55">
-        <v>0.11463</v>
-      </c>
-      <c r="X35"/>
-    </row>
-    <row r="36" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D36" s="15"/>
-      <c r="E36" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="9">
-        <v>5</v>
-      </c>
-      <c r="O36" s="56">
-        <v>0.27909200000000001</v>
-      </c>
-      <c r="P36" s="9">
-        <v>4</v>
-      </c>
-      <c r="Q36" s="56">
-        <v>0.36360799999999999</v>
-      </c>
-      <c r="R36" s="9">
-        <v>3</v>
-      </c>
-      <c r="S36" s="56">
-        <v>0.45285399999999998</v>
-      </c>
-      <c r="T36" s="9">
-        <v>5</v>
-      </c>
-      <c r="U36" s="56">
-        <v>0.69913000000000003</v>
-      </c>
-      <c r="V36" s="9">
-        <v>3</v>
-      </c>
-      <c r="W36" s="53">
-        <v>0.111952</v>
-      </c>
-      <c r="X36"/>
-    </row>
-    <row r="37" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D37" s="6"/>
-      <c r="E37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" s="7">
-        <v>3</v>
-      </c>
-      <c r="M37" s="54">
-        <v>0.20351900000000001</v>
-      </c>
-      <c r="N37" s="7">
-        <v>4</v>
-      </c>
-      <c r="O37" s="54">
-        <v>0.283333</v>
-      </c>
-      <c r="P37" s="7">
-        <v>5</v>
-      </c>
-      <c r="Q37" s="54">
-        <v>0.36185200000000001</v>
-      </c>
-      <c r="R37" s="7">
-        <v>5</v>
-      </c>
-      <c r="S37" s="54">
-        <v>0.432778</v>
-      </c>
-      <c r="T37" s="7">
-        <v>4</v>
-      </c>
-      <c r="U37" s="54">
-        <v>0.70052199999999998</v>
-      </c>
-      <c r="V37" s="7">
-        <v>4</v>
-      </c>
-      <c r="W37" s="55">
-        <v>0.108889</v>
-      </c>
-      <c r="X37"/>
-    </row>
-    <row r="38" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D38" s="15"/>
-      <c r="E38" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="9">
-        <v>11</v>
-      </c>
-      <c r="O38" s="56">
-        <v>0.24471799999999999</v>
-      </c>
-      <c r="P38" s="9">
-        <v>9</v>
-      </c>
-      <c r="Q38" s="56">
-        <v>0.32387300000000002</v>
-      </c>
-      <c r="R38" s="9">
-        <v>9</v>
-      </c>
-      <c r="S38" s="56">
-        <v>0.40365800000000002</v>
-      </c>
-      <c r="T38" s="9">
-        <v>3</v>
-      </c>
-      <c r="U38" s="56">
-        <v>0.708866</v>
-      </c>
-      <c r="V38" s="9">
-        <v>5</v>
-      </c>
-      <c r="W38" s="53">
-        <v>0.10312200000000001</v>
-      </c>
-      <c r="X38"/>
-    </row>
-    <row r="39" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D39" s="6"/>
-      <c r="E39" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="7">
-        <v>9</v>
-      </c>
-      <c r="O39" s="54">
-        <v>0.25036999999999998</v>
-      </c>
-      <c r="P39" s="7">
-        <v>8</v>
-      </c>
-      <c r="Q39" s="54">
-        <v>0.33055600000000002</v>
-      </c>
-      <c r="R39" s="7">
-        <v>8</v>
-      </c>
-      <c r="S39" s="54">
-        <v>0.40796300000000002</v>
-      </c>
-      <c r="T39" s="7">
-        <v>6</v>
-      </c>
-      <c r="U39" s="54">
-        <v>0.67948699999999995</v>
-      </c>
-      <c r="V39" s="7">
-        <v>6</v>
-      </c>
-      <c r="W39" s="55">
-        <v>0.102593</v>
-      </c>
-      <c r="X39"/>
-    </row>
-    <row r="40" spans="4:24" x14ac:dyDescent="0.3">
-      <c r="D40" s="15"/>
-      <c r="E40" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="L40" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M40" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="9">
-        <v>8</v>
-      </c>
-      <c r="O40" s="56">
-        <v>0.25129600000000002</v>
-      </c>
-      <c r="P40" s="9">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="56">
-        <v>0.32277800000000001</v>
-      </c>
-      <c r="R40" s="9">
-        <v>12</v>
-      </c>
-      <c r="S40" s="56">
-        <v>0.38322200000000001</v>
-      </c>
-      <c r="T40" s="9">
-        <v>8</v>
-      </c>
-      <c r="U40" s="56">
-        <v>0.57428900000000005</v>
-      </c>
-      <c r="V40" s="9">
-        <v>7</v>
-      </c>
-      <c r="W40" s="53">
-        <v>0.100926</v>
       </c>
       <c r="X40"/>
     </row>
     <row r="41" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D41" s="6"/>
       <c r="E41" s="13" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>21</v>
@@ -5802,62 +5603,62 @@
       <c r="K41" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M41" s="54" t="s">
-        <v>21</v>
+      <c r="L41" s="7">
+        <v>2</v>
+      </c>
+      <c r="M41" s="54">
+        <v>0.22370399999999999</v>
       </c>
       <c r="N41" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="O41" s="54">
-        <v>0.23888899999999999</v>
+        <v>0.31907400000000002</v>
       </c>
       <c r="P41" s="7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="54">
-        <v>0.30592599999999998</v>
+        <v>0.401111</v>
       </c>
       <c r="R41" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="S41" s="54">
-        <v>0.36066100000000001</v>
+        <v>0.48463000000000001</v>
       </c>
       <c r="T41" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U41" s="54">
-        <v>0.57684000000000002</v>
+        <v>0.73004000000000002</v>
       </c>
       <c r="V41" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="W41" s="55">
-        <v>9.9444400000000002E-2</v>
+        <v>0.11463</v>
       </c>
       <c r="X41"/>
     </row>
     <row r="42" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D42" s="15"/>
       <c r="E42" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F42" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="30" t="s">
         <v>21</v>
       </c>
       <c r="G42" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="H42" s="30" t="s">
         <v>21</v>
       </c>
       <c r="I42" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="30" t="s">
         <v>21</v>
       </c>
       <c r="K42" s="30" t="s">
@@ -5870,41 +5671,41 @@
         <v>21</v>
       </c>
       <c r="N42" s="9">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O42" s="56">
-        <v>0.23935699999999999</v>
+        <v>0.27909200000000001</v>
       </c>
       <c r="P42" s="9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="Q42" s="56">
-        <v>0.31598900000000002</v>
+        <v>0.36360799999999999</v>
       </c>
       <c r="R42" s="9">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="S42" s="56">
-        <v>0.394513</v>
+        <v>0.45285399999999998</v>
       </c>
       <c r="T42" s="9">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="U42" s="56">
-        <v>0.333816</v>
+        <v>0.69913000000000003</v>
       </c>
       <c r="V42" s="9">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W42" s="53">
-        <v>9.9337700000000001E-2</v>
+        <v>0.111952</v>
       </c>
       <c r="X42"/>
     </row>
     <row r="43" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D43" s="6"/>
       <c r="E43" s="13" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>21</v>
@@ -5925,47 +5726,47 @@
         <v>21</v>
       </c>
       <c r="L43" s="7">
+        <v>3</v>
+      </c>
+      <c r="M43" s="54">
+        <v>0.20351900000000001</v>
+      </c>
+      <c r="N43" s="7">
         <v>4</v>
       </c>
-      <c r="M43" s="54">
-        <v>0.20055600000000001</v>
-      </c>
-      <c r="N43" s="7">
-        <v>3</v>
-      </c>
       <c r="O43" s="54">
-        <v>0.286111</v>
+        <v>0.283333</v>
       </c>
       <c r="P43" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q43" s="54">
-        <v>0.36833300000000002</v>
+        <v>0.36185200000000001</v>
       </c>
       <c r="R43" s="7">
+        <v>5</v>
+      </c>
+      <c r="S43" s="54">
+        <v>0.432778</v>
+      </c>
+      <c r="T43" s="7">
         <v>4</v>
       </c>
-      <c r="S43" s="54">
-        <v>0.44185200000000002</v>
-      </c>
-      <c r="T43" s="7">
-        <v>60</v>
-      </c>
       <c r="U43" s="54">
-        <v>0.28647299999999998</v>
+        <v>0.70052199999999998</v>
       </c>
       <c r="V43" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W43" s="55">
-        <v>9.5555600000000004E-2</v>
+        <v>0.108889</v>
       </c>
       <c r="X43"/>
     </row>
     <row r="44" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D44" s="15"/>
-      <c r="E44" s="26" t="s">
-        <v>62</v>
+      <c r="E44" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>21</v>
@@ -5992,41 +5793,41 @@
         <v>21</v>
       </c>
       <c r="N44" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O44" s="56">
-        <v>0.245</v>
+        <v>0.24471799999999999</v>
       </c>
       <c r="P44" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q44" s="56">
-        <v>0.322407</v>
+        <v>0.32387300000000002</v>
       </c>
       <c r="R44" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S44" s="56">
-        <v>0.398148</v>
+        <v>0.40365800000000002</v>
       </c>
       <c r="T44" s="9">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="U44" s="56">
-        <v>0.30531399999999997</v>
-      </c>
-      <c r="V44" s="11">
-        <v>11</v>
+        <v>0.708866</v>
+      </c>
+      <c r="V44" s="9">
+        <v>5</v>
       </c>
       <c r="W44" s="53">
-        <v>9.18519E-2</v>
+        <v>0.10312200000000001</v>
       </c>
       <c r="X44"/>
     </row>
     <row r="45" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D45" s="6"/>
-      <c r="E45" s="27" t="s">
-        <v>64</v>
+      <c r="E45" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>21</v>
@@ -6053,41 +5854,41 @@
         <v>21</v>
       </c>
       <c r="N45" s="7">
+        <v>9</v>
+      </c>
+      <c r="O45" s="54">
+        <v>0.25036999999999998</v>
+      </c>
+      <c r="P45" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="54">
+        <v>0.33055600000000002</v>
+      </c>
+      <c r="R45" s="7">
+        <v>8</v>
+      </c>
+      <c r="S45" s="54">
+        <v>0.40796300000000002</v>
+      </c>
+      <c r="T45" s="7">
         <v>6</v>
       </c>
-      <c r="O45" s="54">
-        <v>0.26259300000000002</v>
-      </c>
-      <c r="P45" s="7">
+      <c r="U45" s="54">
+        <v>0.67948699999999995</v>
+      </c>
+      <c r="V45" s="7">
         <v>6</v>
       </c>
-      <c r="Q45" s="54">
-        <v>0.34259299999999998</v>
-      </c>
-      <c r="R45" s="7">
-        <v>7</v>
-      </c>
-      <c r="S45" s="54">
-        <v>0.41592600000000002</v>
-      </c>
-      <c r="T45" s="7">
-        <v>33</v>
-      </c>
-      <c r="U45" s="54">
-        <v>0.36265199999999997</v>
-      </c>
-      <c r="V45" s="7">
-        <v>12</v>
-      </c>
       <c r="W45" s="55">
-        <v>8.98148E-2</v>
+        <v>0.102593</v>
       </c>
       <c r="X45"/>
     </row>
     <row r="46" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D46" s="15"/>
-      <c r="E46" s="26" t="s">
-        <v>66</v>
+      <c r="E46" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>21</v>
@@ -6114,55 +5915,55 @@
         <v>21</v>
       </c>
       <c r="N46" s="9">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="O46" s="56">
-        <v>0.23555599999999999</v>
+        <v>0.25129600000000002</v>
       </c>
       <c r="P46" s="9">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q46" s="56">
-        <v>0.30222199999999999</v>
+        <v>0.32277800000000001</v>
       </c>
       <c r="R46" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S46" s="56">
-        <v>0.35621199999999997</v>
+        <v>0.38322200000000001</v>
       </c>
       <c r="T46" s="9">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="U46" s="56">
-        <v>0.35047400000000001</v>
+        <v>0.57428900000000005</v>
       </c>
       <c r="V46" s="9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="W46" s="53">
-        <v>8.8888900000000007E-2</v>
+        <v>0.100926</v>
       </c>
       <c r="X46"/>
     </row>
     <row r="47" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D47" s="6"/>
-      <c r="E47" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="29" t="s">
+      <c r="E47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I47" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="29" t="s">
+      <c r="J47" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K47" s="29" t="s">
@@ -6175,41 +5976,41 @@
         <v>21</v>
       </c>
       <c r="N47" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O47" s="54">
-        <v>0.21734999999999999</v>
+        <v>0.23888899999999999</v>
       </c>
       <c r="P47" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="Q47" s="54">
-        <v>0.27391199999999999</v>
+        <v>0.30592599999999998</v>
       </c>
       <c r="R47" s="7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="S47" s="54">
-        <v>0.32062299999999999</v>
+        <v>0.36066100000000001</v>
       </c>
       <c r="T47" s="7">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="U47" s="54">
-        <v>0.300483</v>
+        <v>0.57684000000000002</v>
       </c>
       <c r="V47" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="W47" s="55">
-        <v>8.4842699999999993E-2</v>
+        <v>9.9444400000000002E-2</v>
       </c>
       <c r="X47"/>
     </row>
     <row r="48" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D48" s="15"/>
-      <c r="E48" s="26" t="s">
-        <v>69</v>
+      <c r="E48" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>21</v>
@@ -6236,41 +6037,41 @@
         <v>21</v>
       </c>
       <c r="N48" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O48" s="56">
-        <v>0.239259</v>
+        <v>0.23935699999999999</v>
       </c>
       <c r="P48" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q48" s="56">
-        <v>0.31036999999999998</v>
+        <v>0.31598900000000002</v>
       </c>
       <c r="R48" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S48" s="56">
-        <v>0.37870399999999999</v>
+        <v>0.394513</v>
       </c>
       <c r="T48" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="U48" s="56">
-        <v>0.399368</v>
+        <v>0.333816</v>
       </c>
       <c r="V48" s="9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="W48" s="53">
-        <v>7.8703700000000001E-2</v>
+        <v>9.9337700000000001E-2</v>
       </c>
       <c r="X48"/>
     </row>
     <row r="49" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D49" s="6"/>
-      <c r="E49" s="27" t="s">
-        <v>71</v>
+      <c r="E49" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>21</v>
@@ -6290,65 +6091,65 @@
       <c r="K49" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M49" s="54" t="s">
-        <v>21</v>
+      <c r="L49" s="7">
+        <v>4</v>
+      </c>
+      <c r="M49" s="54">
+        <v>0.20055600000000001</v>
       </c>
       <c r="N49" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="O49" s="54">
-        <v>0.22889000000000001</v>
+        <v>0.286111</v>
       </c>
       <c r="P49" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q49" s="54">
-        <v>0.27518199999999998</v>
+        <v>0.36833300000000002</v>
       </c>
       <c r="R49" s="7">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="S49" s="54">
-        <v>0.331762</v>
+        <v>0.44185200000000002</v>
       </c>
       <c r="T49" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="U49" s="54">
-        <v>0.50088200000000005</v>
+        <v>0.28647299999999998</v>
       </c>
       <c r="V49" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="W49" s="55">
-        <v>7.5439300000000001E-2</v>
+        <v>9.5555600000000004E-2</v>
       </c>
       <c r="X49"/>
     </row>
     <row r="50" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D50" s="15"/>
       <c r="E50" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L50" s="9" t="s">
@@ -6357,42 +6158,42 @@
       <c r="M50" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O50" s="56" t="s">
-        <v>21</v>
+      <c r="N50" s="9">
+        <v>10</v>
+      </c>
+      <c r="O50" s="56">
+        <v>0.245</v>
       </c>
       <c r="P50" s="9">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q50" s="56">
-        <v>0.26837</v>
+        <v>0.322407</v>
       </c>
       <c r="R50" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S50" s="56">
-        <v>0.355408</v>
+        <v>0.398148</v>
       </c>
       <c r="T50" s="9">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="U50" s="56">
-        <v>0.28665200000000002</v>
-      </c>
-      <c r="V50" s="9">
-        <v>17</v>
+        <v>0.30531399999999997</v>
+      </c>
+      <c r="V50" s="11">
+        <v>11</v>
       </c>
       <c r="W50" s="53">
-        <v>7.4739799999999995E-2</v>
+        <v>9.18519E-2</v>
       </c>
       <c r="X50"/>
     </row>
     <row r="51" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D51" s="6"/>
       <c r="E51" s="27" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>21</v>
@@ -6419,58 +6220,58 @@
         <v>21</v>
       </c>
       <c r="N51" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="O51" s="54">
-        <v>0.23017599999999999</v>
+        <v>0.26259300000000002</v>
       </c>
       <c r="P51" s="7">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="Q51" s="54">
-        <v>0.30732999999999999</v>
+        <v>0.34259299999999998</v>
       </c>
       <c r="R51" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="S51" s="54">
-        <v>0.36926300000000001</v>
+        <v>0.41592600000000002</v>
       </c>
       <c r="T51" s="7">
+        <v>33</v>
+      </c>
+      <c r="U51" s="54">
+        <v>0.36265199999999997</v>
+      </c>
+      <c r="V51" s="7">
         <v>12</v>
       </c>
-      <c r="U51" s="54">
-        <v>0.437803</v>
-      </c>
-      <c r="V51" s="7">
-        <v>18</v>
-      </c>
       <c r="W51" s="55">
-        <v>7.4153499999999997E-2</v>
+        <v>8.98148E-2</v>
       </c>
       <c r="X51"/>
     </row>
     <row r="52" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D52" s="15"/>
       <c r="E52" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="30" t="s">
         <v>21</v>
       </c>
       <c r="L52" s="9" t="s">
@@ -6479,94 +6280,454 @@
       <c r="M52" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="N52" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="O52" s="56" t="s">
-        <v>21</v>
+      <c r="N52" s="9">
+        <v>15</v>
+      </c>
+      <c r="O52" s="56">
+        <v>0.23555599999999999</v>
       </c>
       <c r="P52" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="Q52" s="56">
-        <v>0.22370499999999999</v>
+        <v>0.30222199999999999</v>
       </c>
       <c r="R52" s="9">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S52" s="56">
-        <v>0.27867799999999998</v>
+        <v>0.35621199999999997</v>
       </c>
       <c r="T52" s="9">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U52" s="56">
-        <v>0.35935800000000001</v>
+        <v>0.35047400000000001</v>
       </c>
       <c r="V52" s="9">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="W52" s="53">
-        <v>7.4074100000000004E-2</v>
+        <v>8.8888900000000007E-2</v>
       </c>
     </row>
     <row r="53" spans="4:24" x14ac:dyDescent="0.3">
       <c r="D53" s="6"/>
       <c r="E53" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="7">
+        <v>19</v>
+      </c>
+      <c r="O53" s="54">
+        <v>0.21734999999999999</v>
+      </c>
+      <c r="P53" s="7">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="54">
+        <v>0.27391199999999999</v>
+      </c>
+      <c r="R53" s="7">
+        <v>25</v>
+      </c>
+      <c r="S53" s="54">
+        <v>0.32062299999999999</v>
+      </c>
+      <c r="T53" s="7">
+        <v>54</v>
+      </c>
+      <c r="U53" s="54">
+        <v>0.300483</v>
+      </c>
+      <c r="V53" s="7">
+        <v>14</v>
+      </c>
+      <c r="W53" s="55">
+        <v>8.4842699999999993E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D54" s="15"/>
+      <c r="E54" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="9">
+        <v>13</v>
+      </c>
+      <c r="O54" s="56">
+        <v>0.239259</v>
+      </c>
+      <c r="P54" s="9">
+        <v>13</v>
+      </c>
+      <c r="Q54" s="56">
+        <v>0.31036999999999998</v>
+      </c>
+      <c r="R54" s="9">
+        <v>14</v>
+      </c>
+      <c r="S54" s="56">
+        <v>0.37870399999999999</v>
+      </c>
+      <c r="T54" s="9">
+        <v>21</v>
+      </c>
+      <c r="U54" s="56">
+        <v>0.399368</v>
+      </c>
+      <c r="V54" s="9">
+        <v>15</v>
+      </c>
+      <c r="W54" s="53">
+        <v>7.8703700000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D55" s="6"/>
+      <c r="E55" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="7">
+        <v>17</v>
+      </c>
+      <c r="O55" s="54">
+        <v>0.22889000000000001</v>
+      </c>
+      <c r="P55" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="54">
+        <v>0.27518199999999998</v>
+      </c>
+      <c r="R55" s="7">
+        <v>22</v>
+      </c>
+      <c r="S55" s="54">
+        <v>0.331762</v>
+      </c>
+      <c r="T55" s="7">
+        <v>9</v>
+      </c>
+      <c r="U55" s="54">
+        <v>0.50088200000000005</v>
+      </c>
+      <c r="V55" s="7">
+        <v>16</v>
+      </c>
+      <c r="W55" s="55">
+        <v>7.5439300000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D56" s="15"/>
+      <c r="E56" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="P56" s="9">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="56">
+        <v>0.26837</v>
+      </c>
+      <c r="R56" s="9">
+        <v>20</v>
+      </c>
+      <c r="S56" s="56">
+        <v>0.355408</v>
+      </c>
+      <c r="T56" s="9">
+        <v>59</v>
+      </c>
+      <c r="U56" s="56">
+        <v>0.28665200000000002</v>
+      </c>
+      <c r="V56" s="9">
+        <v>17</v>
+      </c>
+      <c r="W56" s="53">
+        <v>7.4739799999999995E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D57" s="6"/>
+      <c r="E57" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="7">
+        <v>16</v>
+      </c>
+      <c r="O57" s="54">
+        <v>0.23017599999999999</v>
+      </c>
+      <c r="P57" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q57" s="54">
+        <v>0.30732999999999999</v>
+      </c>
+      <c r="R57" s="7">
+        <v>16</v>
+      </c>
+      <c r="S57" s="54">
+        <v>0.36926300000000001</v>
+      </c>
+      <c r="T57" s="7">
+        <v>12</v>
+      </c>
+      <c r="U57" s="54">
+        <v>0.437803</v>
+      </c>
+      <c r="V57" s="7">
+        <v>18</v>
+      </c>
+      <c r="W57" s="55">
+        <v>7.4153499999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D58" s="15"/>
+      <c r="E58" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="F58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="9">
+        <v>33</v>
+      </c>
+      <c r="Q58" s="56">
+        <v>0.22370499999999999</v>
+      </c>
+      <c r="R58" s="9">
+        <v>33</v>
+      </c>
+      <c r="S58" s="56">
+        <v>0.27867799999999998</v>
+      </c>
+      <c r="T58" s="9">
+        <v>35</v>
+      </c>
+      <c r="U58" s="56">
+        <v>0.35935800000000001</v>
+      </c>
+      <c r="V58" s="9">
+        <v>19</v>
+      </c>
+      <c r="W58" s="53">
+        <v>7.4074100000000004E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="4:24" x14ac:dyDescent="0.3">
+      <c r="D59" s="6"/>
+      <c r="E59" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O53" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="P53" s="7">
+      <c r="F59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="P59" s="7">
         <v>28</v>
       </c>
-      <c r="Q53" s="54">
+      <c r="Q59" s="54">
         <v>0.246584</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R59" s="7">
         <v>28</v>
       </c>
-      <c r="S53" s="54">
+      <c r="S59" s="54">
         <v>0.29742600000000002</v>
       </c>
-      <c r="T53" s="7">
+      <c r="T59" s="7">
         <v>34</v>
       </c>
-      <c r="U53" s="54">
+      <c r="U59" s="54">
         <v>0.36149700000000001</v>
       </c>
-      <c r="V53" s="7">
+      <c r="V59" s="7">
         <v>20</v>
       </c>
-      <c r="W53" s="55">
+      <c r="W59" s="55">
         <v>7.3403200000000002E-2</v>
       </c>
     </row>
@@ -6582,16 +6743,16 @@
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
     <mergeCell ref="T5:U5"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="V31:W32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="V37:W38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T38:U38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6602,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E3:V51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:F30"/>
+    <sheetView showGridLines="0" topLeftCell="E11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6614,10 +6775,10 @@
   <sheetData>
     <row r="3" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E4" s="123" t="s">
+      <c r="E4" s="130" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="124"/>
+      <c r="F4" s="131"/>
       <c r="G4" s="34" t="s">
         <v>9</v>
       </c>
@@ -6632,44 +6793,44 @@
       <c r="P4" s="35"/>
       <c r="Q4" s="36"/>
       <c r="R4" s="36"/>
-      <c r="S4" s="130" t="s">
+      <c r="S4" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="146"/>
+      <c r="T4" s="153"/>
       <c r="U4" s="42"/>
       <c r="V4" s="42"/>
     </row>
     <row r="5" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="134" t="s">
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135" t="s">
+      <c r="H5" s="142"/>
+      <c r="I5" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135" t="s">
+      <c r="J5" s="142"/>
+      <c r="K5" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="L5" s="135"/>
-      <c r="M5" s="143" t="s">
+      <c r="L5" s="142"/>
+      <c r="M5" s="150" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143" t="s">
+      <c r="N5" s="150"/>
+      <c r="O5" s="150" t="s">
         <v>88</v>
       </c>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="143" t="s">
+      <c r="P5" s="151"/>
+      <c r="Q5" s="150" t="s">
         <v>81</v>
       </c>
-      <c r="R5" s="144"/>
-      <c r="S5" s="132"/>
-      <c r="T5" s="147"/>
-      <c r="U5" s="145"/>
-      <c r="V5" s="145"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="139"/>
+      <c r="T5" s="154"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E6" s="3" t="s">
@@ -7728,10 +7889,10 @@
     </row>
     <row r="28" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="5:22" x14ac:dyDescent="0.3">
-      <c r="E29" s="123" t="s">
+      <c r="E29" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="124"/>
+      <c r="F29" s="131"/>
       <c r="G29" s="34" t="s">
         <v>9</v>
       </c>
@@ -7746,44 +7907,44 @@
       <c r="P29" s="35"/>
       <c r="Q29" s="36"/>
       <c r="R29" s="36"/>
-      <c r="S29" s="130" t="s">
+      <c r="S29" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="T29" s="146"/>
+      <c r="T29" s="153"/>
       <c r="U29" s="42"/>
       <c r="V29" s="42"/>
     </row>
     <row r="30" spans="5:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="125"/>
-      <c r="F30" s="126"/>
-      <c r="G30" s="148" t="s">
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="135"/>
-      <c r="I30" s="135" t="s">
+      <c r="H30" s="142"/>
+      <c r="I30" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="135"/>
-      <c r="K30" s="135" t="s">
+      <c r="J30" s="142"/>
+      <c r="K30" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135" t="s">
+      <c r="L30" s="142"/>
+      <c r="M30" s="142" t="s">
         <v>87</v>
       </c>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135" t="s">
+      <c r="N30" s="142"/>
+      <c r="O30" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="P30" s="136"/>
-      <c r="Q30" s="134" t="s">
+      <c r="P30" s="143"/>
+      <c r="Q30" s="141" t="s">
         <v>81</v>
       </c>
-      <c r="R30" s="136"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="145"/>
-      <c r="V30" s="145"/>
+      <c r="R30" s="143"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="154"/>
+      <c r="U30" s="152"/>
+      <c r="V30" s="152"/>
     </row>
     <row r="31" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E31" s="3" t="s">
@@ -8839,9 +9000,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U5:V5"/>
     <mergeCell ref="E29:F30"/>
     <mergeCell ref="S29:T30"/>
     <mergeCell ref="G30:H30"/>
@@ -8857,6 +9015,9 @@
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="M30:N30"/>
     <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U5:V5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8866,8 +9027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V49"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="H6:I23"/>
+    <sheetView showGridLines="0" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8877,10 +9038,10 @@
   <sheetData>
     <row r="2" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="124"/>
+      <c r="D3" s="131"/>
       <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
@@ -8899,48 +9060,48 @@
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
-      <c r="U3" s="130" t="s">
+      <c r="U3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="131"/>
+      <c r="V3" s="138"/>
     </row>
     <row r="4" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="125"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="134" t="s">
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135" t="s">
+      <c r="F4" s="142"/>
+      <c r="G4" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135" t="s">
+      <c r="H4" s="142"/>
+      <c r="I4" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="J4" s="135"/>
-      <c r="K4" s="143" t="s">
+      <c r="J4" s="142"/>
+      <c r="K4" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143" t="s">
+      <c r="L4" s="150"/>
+      <c r="M4" s="150" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="144"/>
-      <c r="O4" s="143" t="s">
+      <c r="N4" s="151"/>
+      <c r="O4" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="143" t="s">
+      <c r="P4" s="151"/>
+      <c r="Q4" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="R4" s="144"/>
-      <c r="S4" s="134" t="s">
+      <c r="R4" s="151"/>
+      <c r="S4" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="136"/>
-      <c r="U4" s="132"/>
-      <c r="V4" s="133"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="140"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
@@ -10206,10 +10367,10 @@
     </row>
     <row r="26" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C27" s="123" t="s">
+      <c r="C27" s="130" t="s">
         <v>112</v>
       </c>
-      <c r="D27" s="124"/>
+      <c r="D27" s="131"/>
       <c r="E27" s="34" t="s">
         <v>9</v>
       </c>
@@ -10228,48 +10389,48 @@
       <c r="R27" s="36"/>
       <c r="S27" s="36"/>
       <c r="T27" s="37"/>
-      <c r="U27" s="130" t="s">
+      <c r="U27" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="V27" s="131"/>
+      <c r="V27" s="138"/>
     </row>
     <row r="28" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="125"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="134" t="s">
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="141" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135" t="s">
+      <c r="F28" s="142"/>
+      <c r="G28" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135" t="s">
+      <c r="H28" s="142"/>
+      <c r="I28" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="135"/>
-      <c r="K28" s="143" t="s">
+      <c r="J28" s="142"/>
+      <c r="K28" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143" t="s">
+      <c r="L28" s="150"/>
+      <c r="M28" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="N28" s="144"/>
-      <c r="O28" s="143" t="s">
+      <c r="N28" s="151"/>
+      <c r="O28" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="P28" s="144"/>
-      <c r="Q28" s="143" t="s">
+      <c r="P28" s="151"/>
+      <c r="Q28" s="150" t="s">
         <v>126</v>
       </c>
-      <c r="R28" s="144"/>
-      <c r="S28" s="134" t="s">
+      <c r="R28" s="151"/>
+      <c r="S28" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="T28" s="136"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="133"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="140"/>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
@@ -11562,10 +11723,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:K9"/>
+  <dimension ref="E2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11573,44 +11734,54 @@
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E4" s="100" t="s">
+    <row r="2" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3" s="128"/>
+      <c r="F3" s="156" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="158" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="98" t="s">
+      <c r="G4" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="J4" s="99" t="s">
-        <v>10</v>
-      </c>
+      <c r="J4" s="159"/>
     </row>
     <row r="5" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="115" t="s">
+      <c r="F5" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="129" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11618,96 +11789,109 @@
       <c r="E6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="119">
         <v>0</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="120">
         <v>0.24615400000000001</v>
       </c>
-      <c r="H6" s="56">
+      <c r="H6" s="120">
         <v>0.33504299999999998</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="120">
         <v>0.53547</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="121">
         <v>0.30775799999999998</v>
-      </c>
-      <c r="K6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E7" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="122">
         <v>0</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="123">
         <v>0.20874400000000001</v>
       </c>
-      <c r="H7" s="54">
+      <c r="H7" s="123">
         <v>0.28418300000000002</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="123">
         <v>0.458208</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="124">
         <v>0.24946399999999999</v>
-      </c>
-      <c r="K7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="8" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E8" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="119">
         <v>0</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="119">
         <v>0</v>
       </c>
-      <c r="H8" s="56">
+      <c r="H8" s="120">
         <v>0.25312899999999999</v>
       </c>
-      <c r="I8" s="56">
+      <c r="I8" s="120">
         <v>0.39916600000000002</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="121">
         <v>0.25034800000000001</v>
-      </c>
-      <c r="K8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="9" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="113">
+      <c r="F9" s="125">
         <v>0</v>
       </c>
-      <c r="G9" s="113">
+      <c r="G9" s="125">
         <v>0</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="126">
         <v>0</v>
       </c>
-      <c r="I9" s="113">
+      <c r="I9" s="125">
         <v>0.3</v>
       </c>
-      <c r="J9" s="68">
+      <c r="J9" s="127">
         <v>0.12851899999999999</v>
       </c>
-      <c r="K9" t="s">
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
         <v>142</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11715,8 +11899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:Y16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11726,250 +11910,250 @@
   <sheetData>
     <row r="5" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="6:25" x14ac:dyDescent="0.3">
-      <c r="F6" s="149" t="s">
+      <c r="F6" s="160" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="150"/>
-      <c r="H6" s="106" t="s">
+      <c r="G6" s="161"/>
+      <c r="H6" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="107"/>
-      <c r="L6" s="107"/>
-      <c r="M6" s="107"/>
-      <c r="N6" s="107"/>
-      <c r="O6" s="107"/>
-      <c r="P6" s="107"/>
-      <c r="Q6" s="107"/>
-      <c r="R6" s="108"/>
-      <c r="S6" s="108"/>
-      <c r="T6" s="108"/>
-      <c r="U6" s="108"/>
-      <c r="V6" s="108"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="153" t="s">
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="105"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="Y6" s="154"/>
+      <c r="Y6" s="165"/>
     </row>
     <row r="7" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="157" t="s">
+      <c r="F7" s="162"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158" t="s">
+      <c r="I7" s="169"/>
+      <c r="J7" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158" t="s">
+      <c r="K7" s="169"/>
+      <c r="L7" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="158"/>
-      <c r="N7" s="159" t="s">
+      <c r="M7" s="169"/>
+      <c r="N7" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="159"/>
-      <c r="P7" s="159" t="s">
+      <c r="O7" s="170"/>
+      <c r="P7" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="159" t="s">
+      <c r="Q7" s="171"/>
+      <c r="R7" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="S7" s="160"/>
-      <c r="T7" s="159" t="s">
+      <c r="S7" s="171"/>
+      <c r="T7" s="170" t="s">
         <v>84</v>
       </c>
-      <c r="U7" s="160"/>
-      <c r="V7" s="157" t="s">
+      <c r="U7" s="171"/>
+      <c r="V7" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="W7" s="161"/>
-      <c r="X7" s="155"/>
-      <c r="Y7" s="156"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="166"/>
+      <c r="Y7" s="167"/>
     </row>
     <row r="8" spans="6:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="T8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="U8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="V8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="W8" s="111" t="s">
-        <v>3</v>
-      </c>
-      <c r="X8" s="111" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y8" s="112" t="s">
+      <c r="H8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="S8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="110" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="6:25" x14ac:dyDescent="0.3">
-      <c r="F9" s="82"/>
-      <c r="G9" s="83" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="84" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="84">
+      <c r="H9" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="83">
         <v>10</v>
       </c>
-      <c r="K9" s="85">
+      <c r="K9" s="84">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L9" s="84">
+      <c r="L9" s="83">
         <v>12</v>
       </c>
-      <c r="M9" s="85">
+      <c r="M9" s="84">
         <v>0.281111</v>
       </c>
-      <c r="N9" s="84">
+      <c r="N9" s="83">
         <v>10</v>
       </c>
-      <c r="O9" s="85">
+      <c r="O9" s="84">
         <v>0.361481</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="83">
         <v>10</v>
       </c>
-      <c r="Q9" s="85">
+      <c r="Q9" s="84">
         <v>0.44166699999999998</v>
       </c>
-      <c r="R9" s="84">
+      <c r="R9" s="83">
         <v>10</v>
       </c>
-      <c r="S9" s="85">
+      <c r="S9" s="84">
         <v>0.51425900000000002</v>
       </c>
-      <c r="T9" s="84">
+      <c r="T9" s="83">
         <v>10</v>
       </c>
-      <c r="U9" s="85">
+      <c r="U9" s="84">
         <v>0.58388899999999999</v>
       </c>
-      <c r="V9" s="84">
+      <c r="V9" s="83">
         <v>4</v>
       </c>
-      <c r="W9" s="85">
+      <c r="W9" s="84">
         <v>0.70052199999999998</v>
       </c>
-      <c r="X9" s="84">
+      <c r="X9" s="83">
         <v>4</v>
       </c>
-      <c r="Y9" s="86">
+      <c r="Y9" s="85">
         <v>0.32629599999999997</v>
       </c>
     </row>
     <row r="10" spans="6:25" x14ac:dyDescent="0.3">
-      <c r="F10" s="101"/>
-      <c r="G10" s="102" t="s">
+      <c r="F10" s="99"/>
+      <c r="G10" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="104" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="103">
+      <c r="H10" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="101">
         <v>19</v>
       </c>
-      <c r="M10" s="104">
+      <c r="M10" s="102">
         <v>0.22148100000000001</v>
       </c>
-      <c r="N10" s="103">
+      <c r="N10" s="101">
         <v>18</v>
       </c>
-      <c r="O10" s="104">
+      <c r="O10" s="102">
         <v>0.29202400000000001</v>
       </c>
-      <c r="P10" s="103">
+      <c r="P10" s="101">
         <v>19</v>
       </c>
-      <c r="Q10" s="104">
+      <c r="Q10" s="102">
         <v>0.35621199999999997</v>
       </c>
-      <c r="R10" s="103">
+      <c r="R10" s="101">
         <v>19</v>
       </c>
-      <c r="S10" s="104">
+      <c r="S10" s="102">
         <v>0.40641899999999997</v>
       </c>
-      <c r="T10" s="103">
+      <c r="T10" s="101">
         <v>20</v>
       </c>
-      <c r="U10" s="104">
+      <c r="U10" s="102">
         <v>0.44455</v>
       </c>
-      <c r="V10" s="103">
+      <c r="V10" s="101">
         <v>7</v>
       </c>
-      <c r="W10" s="104">
+      <c r="W10" s="102">
         <v>0.57684000000000002</v>
       </c>
-      <c r="X10" s="103">
+      <c r="X10" s="101">
         <v>8</v>
       </c>
-      <c r="Y10" s="105">
+      <c r="Y10" s="103">
         <v>0.28153800000000001</v>
       </c>
     </row>
@@ -12038,58 +12222,58 @@
       <c r="G12" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="79" t="s">
-        <v>21</v>
-      </c>
-      <c r="O12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" s="79">
+      <c r="H12" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="79" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="78">
         <v>12</v>
       </c>
-      <c r="Q12" s="81">
+      <c r="Q12" s="80">
         <v>0.23935699999999999</v>
       </c>
-      <c r="R12" s="79">
+      <c r="R12" s="78">
         <v>12</v>
       </c>
-      <c r="S12" s="81">
+      <c r="S12" s="80">
         <v>0.31598900000000002</v>
       </c>
-      <c r="T12" s="79">
+      <c r="T12" s="78">
         <v>11</v>
       </c>
-      <c r="U12" s="81">
+      <c r="U12" s="80">
         <v>0.394513</v>
       </c>
-      <c r="V12" s="79">
+      <c r="V12" s="78">
         <v>45</v>
       </c>
-      <c r="W12" s="81">
+      <c r="W12" s="80">
         <v>0.333816</v>
       </c>
-      <c r="X12" s="79">
+      <c r="X12" s="78">
         <v>9</v>
       </c>
-      <c r="Y12" s="78">
+      <c r="Y12" s="77">
         <v>9.9337700000000001E-2</v>
       </c>
     </row>
@@ -12129,8 +12313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F4:N16"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12138,42 +12322,44 @@
     <col min="5" max="5" width="5.77734375" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="34.109375" customWidth="1"/>
-    <col min="13" max="13" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G5" s="123" t="s">
+      <c r="G5" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="H5" s="124"/>
+      <c r="H5" s="131"/>
       <c r="I5" s="34" t="s">
         <v>9</v>
       </c>
       <c r="J5" s="35"/>
       <c r="K5" s="46" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="L5" s="47"/>
+      <c r="M5" s="178"/>
       <c r="N5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="6" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="162"/>
-      <c r="H6" s="163"/>
-      <c r="I6" s="142" t="s">
+      <c r="G6" s="173"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="149" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="164"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="J6" s="175"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="179"/>
       <c r="N6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="7" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G7" s="118" t="s">
+      <c r="G7" s="114" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="18" t="s">
@@ -12188,31 +12374,31 @@
       <c r="K7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="119" t="s">
+      <c r="L7" s="115" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G8" s="82"/>
-      <c r="H8" s="87" t="s">
+      <c r="G8" s="81"/>
+      <c r="H8" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="84">
+      <c r="I8" s="83">
         <v>5</v>
       </c>
-      <c r="J8" s="85">
+      <c r="J8" s="84">
         <v>0.57179599999999997</v>
       </c>
-      <c r="K8" s="84">
+      <c r="K8" s="83">
         <v>12</v>
       </c>
-      <c r="L8" s="86">
+      <c r="L8" s="85">
         <v>0.25932300000000003</v>
       </c>
-      <c r="M8" s="165"/>
+      <c r="M8" s="176"/>
     </row>
     <row r="9" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G9" s="15"/>
@@ -12231,7 +12417,7 @@
       <c r="L9" s="53">
         <v>0.25854700000000003</v>
       </c>
-      <c r="M9" s="166"/>
+      <c r="M9" s="177"/>
     </row>
     <row r="10" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G10" s="6"/>
@@ -12250,7 +12436,7 @@
       <c r="L10" s="55">
         <v>0.25289299999999998</v>
       </c>
-      <c r="M10" s="166"/>
+      <c r="M10" s="177"/>
     </row>
     <row r="11" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G11" s="15"/>
@@ -12269,7 +12455,7 @@
       <c r="L11" s="53">
         <v>0.25034800000000001</v>
       </c>
-      <c r="M11" s="166"/>
+      <c r="M11" s="177"/>
     </row>
     <row r="12" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G12" s="6"/>
@@ -12288,7 +12474,7 @@
       <c r="L12" s="55">
         <v>0.24946399999999999</v>
       </c>
-      <c r="M12" s="166"/>
+      <c r="M12" s="177"/>
     </row>
     <row r="13" spans="7:14" x14ac:dyDescent="0.3">
       <c r="G13" s="15"/>
@@ -12307,51 +12493,51 @@
       <c r="L13" s="53">
         <v>0.24377199999999999</v>
       </c>
-      <c r="M13" s="166"/>
+      <c r="M13" s="177"/>
     </row>
     <row r="14" spans="7:14" x14ac:dyDescent="0.3">
-      <c r="G14" s="88"/>
-      <c r="H14" s="89" t="s">
+      <c r="G14" s="87"/>
+      <c r="H14" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="91">
-        <v>21</v>
-      </c>
-      <c r="J14" s="90">
+      <c r="I14" s="90">
+        <v>21</v>
+      </c>
+      <c r="J14" s="89">
         <v>0.38226900000000003</v>
       </c>
-      <c r="K14" s="91">
+      <c r="K14" s="90">
         <v>18</v>
       </c>
-      <c r="L14" s="92">
+      <c r="L14" s="91">
         <v>0.23832200000000001</v>
       </c>
-      <c r="M14" s="120">
-        <v>26817.245810010299</v>
+      <c r="M14" s="116">
+        <v>21239.302511457499</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="7:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G15" s="93"/>
-      <c r="H15" s="94" t="s">
+      <c r="G15" s="92"/>
+      <c r="H15" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="96">
-        <v>21</v>
-      </c>
-      <c r="J15" s="95">
+      <c r="I15" s="95">
+        <v>21</v>
+      </c>
+      <c r="J15" s="94">
         <v>0.38226900000000003</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="95">
         <v>19</v>
       </c>
-      <c r="L15" s="97">
+      <c r="L15" s="96">
         <v>0.23800399999999999</v>
       </c>
-      <c r="M15" s="121">
-        <v>29335.4227507102</v>
+      <c r="M15" s="116">
+        <v>22420.832234481401</v>
       </c>
       <c r="N15" t="s">
         <v>151</v>
@@ -12363,10 +12549,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="G5:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="M8:M13"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12378,26 +12565,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F21:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="81" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="21" spans="6:10" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" t="s">
         <v>155</v>
       </c>
-      <c r="H21" t="s">
-        <v>156</v>
-      </c>
       <c r="J21" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="6:10" x14ac:dyDescent="0.3">
       <c r="F24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -12408,77 +12595,275 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F2:M32"/>
+  <dimension ref="B2:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="18.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
       <c r="L2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
         <v>159</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="117">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H4" s="122">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="F5" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="122">
+      <c r="H5" s="117">
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>150</v>
       </c>
-      <c r="H6" s="122">
+      <c r="H6" s="117">
         <v>0.6</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="H7" s="122">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H7" s="117">
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.3">
-      <c r="H8" s="122">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H8" s="117">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>176</v>
+      </c>
+      <c r="E14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
       <c r="M21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="28" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I28" t="s">
-        <v>166</v>
-      </c>
       <c r="M28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="M32" t="s">
-        <v>167</v>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
